--- a/power_plant_power_calculated_Q_values_Kaş.xlsx
+++ b/power_plant_power_calculated_Q_values_Kaş.xlsx
@@ -445,28 +445,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>-3838050.269</v>
+        <v>201347.70816644</v>
       </c>
       <c r="C2">
-        <v>-3513109.3224</v>
+        <v>-79621.041808526</v>
       </c>
       <c r="D2">
-        <v>-4101145.431</v>
+        <v>79161.77792805988</v>
       </c>
       <c r="E2">
-        <v>-3805820.8976</v>
+        <v>-252559.7700111489</v>
       </c>
       <c r="F2">
-        <v>-3457717.337000001</v>
+        <v>205922.68880212</v>
       </c>
       <c r="G2">
-        <v>-3152088.455200001</v>
+        <v>-37994.43326819798</v>
       </c>
       <c r="H2">
-        <v>-4117777.414000001</v>
+        <v>156469.2827691399</v>
       </c>
       <c r="I2">
-        <v>-3797415.4894</v>
+        <v>-164305.797146231</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -474,28 +474,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>-3830772.25025</v>
+        <v>-44592.62811301352</v>
       </c>
       <c r="C3">
-        <v>-3509430.6724</v>
+        <v>-291177.9935835614</v>
       </c>
       <c r="D3">
-        <v>-4094905.62475</v>
+        <v>-176649.9692826535</v>
       </c>
       <c r="E3">
-        <v>-3803715.5351</v>
+        <v>-473198.2279527553</v>
       </c>
       <c r="F3">
-        <v>-3450883.293250002</v>
+        <v>-16906.42666064006</v>
       </c>
       <c r="G3">
-        <v>-3148409.8052</v>
+        <v>-229529.4685990442</v>
       </c>
       <c r="H3">
-        <v>-4110642.101500001</v>
+        <v>-104335.7571457466</v>
       </c>
       <c r="I3">
-        <v>-3794323.52065</v>
+        <v>-388963.1279488847</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -503,28 +503,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-4060830.5815</v>
+        <v>-763748.8459050801</v>
       </c>
       <c r="C4">
-        <v>-3624578.7599</v>
+        <v>-822059.2846443182</v>
       </c>
       <c r="D4">
-        <v>-4292611.368500001</v>
+        <v>-880515.1537564201</v>
       </c>
       <c r="E4">
-        <v>-3872185.5851</v>
+        <v>-971903.8025679572</v>
       </c>
       <c r="F4">
-        <v>-3667178.399500001</v>
+        <v>-676801.9416348403</v>
       </c>
       <c r="G4">
-        <v>-3263557.892700001</v>
+        <v>-721737.9035146141</v>
       </c>
       <c r="H4">
-        <v>-4338496.414000001</v>
+        <v>-849723.8798239803</v>
       </c>
       <c r="I4">
-        <v>-3893504.3644</v>
+        <v>-928047.7103503831</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -532,28 +532,28 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>-4486491.61275</v>
+        <v>-1704312.43806432</v>
       </c>
       <c r="C5">
-        <v>-3840683.59115</v>
+        <v>-1475831.292667172</v>
       </c>
       <c r="D5">
-        <v>-4657159.462250001</v>
+        <v>-1777927.52565668</v>
       </c>
       <c r="E5">
-        <v>-3993701.61635</v>
+        <v>-1546354.470245678</v>
       </c>
       <c r="F5">
-        <v>-4066644.905750001</v>
+        <v>-1543273.09615136</v>
       </c>
       <c r="G5">
-        <v>-3479662.72395</v>
+        <v>-1334796.685791156</v>
       </c>
       <c r="H5">
-        <v>-4753866.739000001</v>
+        <v>-1809932.961134921</v>
       </c>
       <c r="I5">
-        <v>-4073123.9644</v>
+        <v>-1570780.253214682</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -770,28 +770,28 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>-4075259.769</v>
+        <v>65420.22335072</v>
       </c>
       <c r="C13">
-        <v>-3631904.3474</v>
+        <v>-112326.3539018879</v>
       </c>
       <c r="D13">
-        <v>-4304968.931000001</v>
+        <v>-19846.61333472006</v>
       </c>
       <c r="E13">
-        <v>-3876304.7726</v>
+        <v>-233950.802584512</v>
       </c>
       <c r="F13">
-        <v>-3680719.637000002</v>
+        <v>74780.82117856001</v>
       </c>
       <c r="G13">
-        <v>-3270883.480200001</v>
+        <v>-78708.09074822391</v>
       </c>
       <c r="H13">
-        <v>-4352576.764</v>
+        <v>28840.43720832006</v>
       </c>
       <c r="I13">
-        <v>-3899593.1644</v>
+        <v>-175388.543372928</v>
       </c>
     </row>
   </sheetData>
